--- a/Config/Excel/Server/SceneConfig.xlsx
+++ b/Config/Excel/Server/SceneConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProject\Framework\Framework\Config\Excel\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB56DF90-529F-47F5-A032-9187D322985E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB6F701-E025-400C-B660-CBD51023BAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SceneConfig" sheetId="8" r:id="rId1"/>
@@ -1816,7 +1816,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -1999,6 +1999,27 @@
   </si>
   <si>
     <t>WebSocket</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>聊天Scene</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Addressable</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Map Scene</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Addressable Scene</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2422,6 +2443,666 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8991599" y="3547533"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>736599</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E4E106B-A9EB-4D9C-A5BA-3B0FA6BC16C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8975724" y="5695950"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>736599</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F4D2405-FFCC-49BE-8344-085837E47852}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8975724" y="5695950"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>736599</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文本框 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5C4B0A1-23AC-4F66-BA19-F6F2393913A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8975724" y="5695950"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>736599</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="文本框 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E3FECBC-D2CF-4FF3-95D6-A7FAB64B4F58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8975724" y="5695950"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>736599</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文本框 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{549B2811-F904-45DC-87FE-AE75AADBB32A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8975724" y="5895975"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>736599</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="文本框 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A54D8F7-D9E4-470A-88C8-F41D834CC11B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8975724" y="5895975"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>736599</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="文本框 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F511AEF-22CA-4B3A-9CD6-5CCD80CEEFE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8975724" y="5895975"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>736599</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="文本框 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1578F687-F29C-40DC-B397-AB81D0173A15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8975724" y="5895975"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>736599</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="文本框 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7B93C61-188A-4DFF-A4D0-18AF4DE86C16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8975724" y="6096000"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>736599</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="文本框 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59F4DE39-5593-471D-A17B-65552EAF8970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8975724" y="6096000"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>736599</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="文本框 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E83ADAF-EB32-449E-BDDF-2E515B91B8C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8975724" y="6096000"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>736599</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="文本框 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF7AF36-1148-41E0-BECB-20D128FA894C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8975724" y="6096000"/>
           <a:ext cx="65" cy="172227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2717,10 +3398,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="G5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2946,14 +3627,142 @@
         <v>46</v>
       </c>
     </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="15.75">
+      <c r="B8" s="6">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1002</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7">
+        <v>11002</v>
+      </c>
+      <c r="K8" s="7">
+        <f>INDEX(SceneTypeConfig!$A$3:$A$90000,MATCH(G8,SceneTypeConfig!$B$3:$B$90000,0))</f>
+        <v>8</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="15.75">
+      <c r="B9" s="6">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1003</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7">
+        <v>11003</v>
+      </c>
+      <c r="K9" s="7">
+        <f>INDEX(SceneTypeConfig!$A$3:$A$90000,MATCH(G9,SceneTypeConfig!$B$3:$B$90000,0))</f>
+        <v>2</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="15.75">
+      <c r="B10" s="6">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1004</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7">
+        <v>11004</v>
+      </c>
+      <c r="K10" s="7">
+        <f>INDEX(SceneTypeConfig!$A$3:$A$90000,MATCH(G10,SceneTypeConfig!$B$3:$B$90000,0))</f>
+        <v>4</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="15.75">
+      <c r="B11" s="6">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1005</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7">
+        <v>11005</v>
+      </c>
+      <c r="K11" s="7">
+        <f>INDEX(SceneTypeConfig!$A$3:$A$90000,MATCH(G11,SceneTypeConfig!$B$3:$B$90000,0))</f>
+        <v>4</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7" xr:uid="{009323E0-4A49-F748-AC34-4C91C4113B8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H11" xr:uid="{009323E0-4A49-F748-AC34-4C91C4113B8E}">
       <formula1>"None,KCP,TCP,WebSocket,HTTP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7" xr:uid="{B7FFB07A-C960-504B-AD56-1016B3E6A224}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F11" xr:uid="{B7FFB07A-C960-504B-AD56-1016B3E6A224}">
       <formula1>"MainThread,MultiThread,ThreadPool"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2968,7 +3777,7 @@
           <x14:formula1>
             <xm:f>SceneTypeConfig!$B$3:$B$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>G7</xm:sqref>
+          <xm:sqref>G7:G11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
